--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="44">
   <si>
     <t xml:space="preserve">Numero de vainas por planta </t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="C120:C139 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="C180:C189 K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="C120:C139 H2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="C180:C189 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="C120:C139 J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="1" sqref="C180:C189 D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C120:C139 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,7 +2413,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C120:C139 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2605,7 +2605,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C120:C139 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2877,7 +2877,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C120:C139 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3146,10 +3146,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120:C139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4684,6 +4684,556 @@
       </c>
       <c r="C139" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>622.25</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>750.78</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>582.25</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>705.48</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>603.1</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>667.21</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>609.66</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>530.63</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>632.81</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>823.87</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>701.36</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>694.67</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>659.12</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>513.29</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>672.82</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>850.84</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>611.09</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>637.14</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>751.16</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>644.31</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>610.3</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>573.15</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>603.31</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>364.32</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>625.9</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>566.81</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>593.1</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>573.15</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>534.52</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>641.28</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4705,7 +5255,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C120:C139 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="45">
   <si>
     <t xml:space="preserve">Numero de vainas por planta </t>
   </si>
@@ -147,16 +147,19 @@
     <t xml:space="preserve">Número de vainas</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitud de la raíz</t>
+    <t xml:space="preserve">Longitud de la raíz [cm] </t>
   </si>
   <si>
-    <t xml:space="preserve">Longitud de vainas</t>
+    <t xml:space="preserve">Longitud de la raíz [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitud de vainas [cm]</t>
   </si>
   <si>
     <t xml:space="preserve">Número de Granos</t>
   </si>
   <si>
-    <t xml:space="preserve">Peso de granos</t>
+    <t xml:space="preserve">Peso de granos [g]</t>
   </si>
   <si>
     <t xml:space="preserve">w_granos</t>
@@ -523,7 +526,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="C180:C189 K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,7 +881,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="C180:C189 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="1" sqref="C180:C189 D36"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,7 +1997,7 @@
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,7 +2416,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2605,7 +2608,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2877,7 +2880,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3148,13 +3151,13 @@
   </sheetPr>
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180:C189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3729,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3740,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,7 +3751,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,7 +3773,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3784,7 @@
         <v>28</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3817,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,7 +3861,7 @@
         <v>30</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,7 +3872,7 @@
         <v>30</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3883,7 @@
         <v>30</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,7 +3894,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3905,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,7 +3916,7 @@
         <v>30</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,7 +3927,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,7 +3949,7 @@
         <v>28</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,7 +3960,7 @@
         <v>28</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +3971,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,7 +3982,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +3993,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,7 +4004,7 @@
         <v>28</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,7 +4015,7 @@
         <v>28</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,7 +4026,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,7 +4037,7 @@
         <v>30</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4048,7 @@
         <v>30</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,7 +4059,7 @@
         <v>30</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4070,7 @@
         <v>30</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +4081,7 @@
         <v>30</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4092,7 @@
         <v>30</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4103,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,7 +4114,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,7 +4125,7 @@
         <v>30</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,7 +4158,7 @@
         <v>28</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4169,7 @@
         <v>28</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4180,7 @@
         <v>28</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4188,7 +4191,7 @@
         <v>28</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,7 +4202,7 @@
         <v>28</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4213,7 @@
         <v>28</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4235,7 @@
         <v>28</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +4246,7 @@
         <v>28</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4257,7 @@
         <v>29</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4268,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4276,7 +4279,7 @@
         <v>29</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4290,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4301,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4312,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4323,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4345,7 @@
         <v>29</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,7 +4356,7 @@
         <v>29</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4367,7 @@
         <v>30</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4389,7 @@
         <v>30</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4400,7 @@
         <v>30</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4411,7 @@
         <v>30</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,7 +4422,7 @@
         <v>30</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,7 +4433,7 @@
         <v>30</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,7 +4455,7 @@
         <v>30</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4466,7 @@
         <v>30</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +4477,7 @@
         <v>28</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4488,7 @@
         <v>28</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4499,7 @@
         <v>28</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4510,7 @@
         <v>28</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,7 +4532,7 @@
         <v>28</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4543,7 @@
         <v>28</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4554,7 @@
         <v>28</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,7 +4565,7 @@
         <v>28</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,7 +4576,7 @@
         <v>28</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4587,7 @@
         <v>28</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4598,7 @@
         <v>28</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,7 +4609,7 @@
         <v>28</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4620,7 @@
         <v>28</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4631,7 @@
         <v>28</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4642,7 @@
         <v>28</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4664,7 @@
         <v>28</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4675,7 @@
         <v>28</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4686,7 @@
         <v>28</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4697,7 @@
         <v>29</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,7 +4730,7 @@
         <v>29</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +4741,7 @@
         <v>29</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +4752,7 @@
         <v>29</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4763,7 @@
         <v>29</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +4774,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,7 +4785,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,7 +4796,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,7 +4829,7 @@
         <v>29</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +4840,7 @@
         <v>29</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4851,7 @@
         <v>29</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,7 +4862,7 @@
         <v>29</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4873,7 @@
         <v>29</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,7 +4884,7 @@
         <v>29</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,7 +4895,7 @@
         <v>29</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,7 +4906,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4917,7 @@
         <v>29</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +4928,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +4939,7 @@
         <v>29</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,7 +4950,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,7 +4961,7 @@
         <v>29</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,7 +4972,7 @@
         <v>29</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5005,7 @@
         <v>29</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5016,7 @@
         <v>29</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5027,7 @@
         <v>30</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5038,7 @@
         <v>30</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +5049,7 @@
         <v>30</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5060,7 @@
         <v>30</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,7 +5071,7 @@
         <v>30</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,7 +5082,7 @@
         <v>30</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,7 +5093,7 @@
         <v>30</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,7 +5104,7 @@
         <v>30</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5115,7 @@
         <v>30</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5126,7 @@
         <v>30</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5137,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,7 +5159,7 @@
         <v>29</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,7 +5170,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5181,7 @@
         <v>29</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5192,7 @@
         <v>29</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5203,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +5214,7 @@
         <v>29</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5255,14 +5258,14 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C180:C189 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>27</v>
